--- a/StatusInvestcomp_v1.xlsx
+++ b/StatusInvestcomp_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\analisefundamentalistafinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/silvio_puzzovio_telefonica_com/Documents/Pasta de Trabalho/drive C/python/analisefundamentalistafinal-main/analisefundamentalistafinal-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB1F37C-D990-4D43-A0B1-2E6A23F8FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{8EB1F37C-D990-4D43-A0B1-2E6A23F8FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2046826E-D049-47BE-AC6D-DD62664ACD45}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$B$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha5!$A$1:$B$50</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="438">
   <si>
     <t>FONTE</t>
   </si>
@@ -772,34 +785,6 @@
         <family val="3"/>
       </rPr>
       <t>:  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Div. liquida/EBIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Passivos/Ativos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -3079,17 +3064,58 @@
     <t>Classe</t>
   </si>
   <si>
-    <t>-%</t>
+    <t>Div. liquida/PL</t>
+  </si>
+  <si>
+    <t>Div. liquida/EBITDA</t>
+  </si>
+  <si>
+    <t>Div. liquida/EBIT</t>
+  </si>
+  <si>
+    <r>
+      <t>Passivos/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Div. liquida/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <t>P/Cap. Giro</t>
+  </si>
+  <si>
+    <t>P/Ativo Circ. Liq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3205,8 +3231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3321,6 +3353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -3369,7 +3407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3440,6 +3478,14 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3746,9 +3792,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3758,7 +3808,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3782,6 +3832,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3791,7 +3845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3820,6 +3874,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3829,7 +3887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -3892,6 +3950,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3903,12 +3965,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3973,6 +4035,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3980,24 +4046,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C62" activeCellId="6" sqref="C50 C55 C56 C57 C58 C59 C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>133</v>
@@ -4007,14 +4073,14 @@
         <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="18"/>
       <c r="M1" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4022,7 +4088,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
@@ -4031,11 +4097,11 @@
         <v>134</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I2" s="18"/>
       <c r="M2" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4043,15 +4109,15 @@
         <v>143</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="H3" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4059,7 +4125,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -4068,11 +4134,11 @@
         <v>134</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I4" s="5"/>
       <c r="M4" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4080,7 +4146,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>29</v>
@@ -4089,11 +4155,11 @@
         <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I5" s="5"/>
       <c r="M5" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4103,7 +4169,7 @@
       <c r="E6" s="5"/>
       <c r="H6" s="19"/>
       <c r="M6" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4116,7 +4182,7 @@
       </c>
       <c r="I7" s="17"/>
       <c r="M7" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4127,50 +4193,50 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I8" s="17"/>
       <c r="M8" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" s="20"/>
       <c r="M9" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4179,10 +4245,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4191,10 +4257,10 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4205,21 +4271,21 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>138</v>
@@ -4228,40 +4294,40 @@
         <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="H15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>139</v>
@@ -4272,18 +4338,18 @@
       <c r="H16" s="21"/>
       <c r="J16" s="21"/>
       <c r="M16" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>149</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>140</v>
@@ -4296,7 +4362,7 @@
       </c>
       <c r="I17" s="17"/>
       <c r="M17" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4305,11 +4371,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18" s="17"/>
       <c r="M18" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4318,10 +4384,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4332,24 +4398,24 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>155</v>
@@ -4358,21 +4424,21 @@
         <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>156</v>
@@ -4381,18 +4447,18 @@
         <v>154</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>180</v>
+        <v>380</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>435</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4401,18 +4467,18 @@
       </c>
       <c r="I23" s="16"/>
       <c r="M23" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>382</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -4425,34 +4491,34 @@
       </c>
       <c r="I24" s="16"/>
       <c r="M24" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="9" t="s">
-        <v>181</v>
+      <c r="B25" s="42" t="s">
+        <v>434</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>382</v>
-      </c>
-      <c r="B26" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>157</v>
@@ -4461,14 +4527,14 @@
         <v>154</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4477,14 +4543,14 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4495,22 +4561,22 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>164</v>
@@ -4519,22 +4585,22 @@
         <v>165</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="30" t="s">
         <v>160</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -4543,36 +4609,36 @@
         <v>165</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I30" s="5"/>
       <c r="M30" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="48" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I31" s="5"/>
       <c r="M31" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="30" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
@@ -4582,15 +4648,15 @@
       </c>
       <c r="H32" s="15"/>
       <c r="M32" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>6</v>
@@ -4602,15 +4668,15 @@
         <v>75</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="30" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>7</v>
@@ -4619,32 +4685,32 @@
         <v>165</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M35" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="30" t="s">
         <v>166</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
@@ -4653,18 +4719,18 @@
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="30" t="s">
         <v>167</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -4673,18 +4739,18 @@
         <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="30" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>177</v>
@@ -4693,18 +4759,18 @@
         <v>165</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="30" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -4713,18 +4779,18 @@
         <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="30" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>176</v>
@@ -4733,18 +4799,18 @@
         <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>174</v>
@@ -4753,18 +4819,18 @@
         <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="30" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>175</v>
@@ -4773,64 +4839,64 @@
         <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="H43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="H44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="29"/>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H46" s="19"/>
       <c r="M46" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -4839,15 +4905,15 @@
       </c>
       <c r="I47" s="16"/>
       <c r="M47" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D48" s="5"/>
       <c r="H48" s="16" t="s">
@@ -4855,15 +4921,15 @@
       </c>
       <c r="I48" s="16"/>
       <c r="M48" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>38</v>
@@ -4872,114 +4938,114 @@
         <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="9" t="s">
-        <v>199</v>
+      <c r="B50" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M50" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="5" t="s">
-        <v>189</v>
+      <c r="B51" s="30" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>173</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="5" t="s">
-        <v>190</v>
+      <c r="B54" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4" t="s">
@@ -4987,20 +5053,20 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="5" t="s">
-        <v>191</v>
+      <c r="B55" s="30" t="s">
+        <v>189</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4" t="s">
@@ -5008,20 +5074,20 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="5" t="s">
-        <v>192</v>
+      <c r="B56" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
@@ -5029,20 +5095,20 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="5" t="s">
-        <v>193</v>
+      <c r="B57" s="30" t="s">
+        <v>191</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
@@ -5050,20 +5116,20 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="5" t="s">
-        <v>194</v>
+      <c r="B58" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="4" t="s">
@@ -5071,20 +5137,20 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="5" t="s">
-        <v>195</v>
+      <c r="B59" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
@@ -5093,26 +5159,26 @@
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>99</v>
@@ -5120,11 +5186,11 @@
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="31" t="s">
-        <v>339</v>
+      <c r="B62" s="49" t="s">
+        <v>337</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>134</v>
@@ -5133,13 +5199,13 @@
     </row>
     <row r="63" spans="2:13">
       <c r="H63" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="2:13">
       <c r="H64" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="24" t="s">
@@ -5148,7 +5214,7 @@
     </row>
     <row r="65" spans="5:10">
       <c r="H65" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="24" t="s">
@@ -5157,19 +5223,19 @@
     </row>
     <row r="66" spans="5:10">
       <c r="H66" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="5:10">
       <c r="H67" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="5:10">
       <c r="H68" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="24" t="s">
@@ -5178,7 +5244,7 @@
     </row>
     <row r="69" spans="5:10">
       <c r="H69" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="25" t="s">
@@ -5187,7 +5253,7 @@
     </row>
     <row r="70" spans="5:10">
       <c r="H70" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="25" t="s">
@@ -5196,7 +5262,7 @@
     </row>
     <row r="71" spans="5:10">
       <c r="H71" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="25" t="s">
@@ -5215,19 +5281,19 @@
     </row>
     <row r="74" spans="5:10">
       <c r="H74" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
     </row>
     <row r="75" spans="5:10">
       <c r="H75" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="H76" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="26" t="s">
@@ -5237,7 +5303,7 @@
     <row r="77" spans="5:10">
       <c r="E77" s="5"/>
       <c r="H77" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -5245,7 +5311,7 @@
     <row r="78" spans="5:10">
       <c r="E78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="26" t="s">
@@ -5255,7 +5321,7 @@
     <row r="79" spans="5:10">
       <c r="E79" s="9"/>
       <c r="H79" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="26" t="s">
@@ -5265,7 +5331,7 @@
     <row r="80" spans="5:10">
       <c r="E80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="26" t="s">
@@ -5285,69 +5351,69 @@
     </row>
     <row r="83" spans="3:10">
       <c r="H83" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="3:10">
       <c r="H84" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="3:10">
       <c r="H85" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="3:10">
       <c r="H86" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="3:10">
       <c r="C87" s="28"/>
       <c r="H87" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="28"/>
       <c r="H88" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="3:10">
       <c r="H89" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="3:10">
       <c r="H90" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="3:10">
@@ -5361,7 +5427,7 @@
     </row>
     <row r="93" spans="3:10">
       <c r="H93" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I93" s="16"/>
     </row>
@@ -5372,14 +5438,14 @@
     </row>
     <row r="95" spans="3:10">
       <c r="H95" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="3:10">
       <c r="H96" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -5387,7 +5453,7 @@
     <row r="97" spans="3:10">
       <c r="C97" s="28"/>
       <c r="H97" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -5401,24 +5467,24 @@
     <row r="99" spans="3:10">
       <c r="C99" s="28"/>
       <c r="H99" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="28"/>
       <c r="H100" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="3:10">
       <c r="H101" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="28"/>
       <c r="H102" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="3:10">
@@ -5428,6 +5494,10 @@
   <autoFilter ref="B1:E5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5437,147 +5507,173 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1">
+      <c r="A4" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" hidden="1">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" hidden="1">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" hidden="1">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" hidden="1">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" hidden="1">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
+      <c r="A9" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" hidden="1">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" hidden="1">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1">
+      <c r="A11" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" hidden="1">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
+      <c r="A12" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" hidden="1">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
+      <c r="A13" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" hidden="1">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1">
+      <c r="A14" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" hidden="1">
-      <c r="A13" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
+      <c r="A15" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" hidden="1">
-      <c r="A14" s="5" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" hidden="1">
+      <c r="A16" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" hidden="1">
-      <c r="A15" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" hidden="1">
-      <c r="A16" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" hidden="1">
       <c r="A17" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>396</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>397</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:2" hidden="1">
       <c r="A19" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="22" spans="1:2" hidden="1">
       <c r="A22" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -5585,61 +5681,67 @@
     </row>
     <row r="23" spans="1:2" hidden="1">
       <c r="A23" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>403</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="25" spans="1:2" hidden="1">
       <c r="A25" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" hidden="1">
       <c r="A27" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" hidden="1">
       <c r="A29" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>149</v>
@@ -5647,73 +5749,91 @@
     </row>
     <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>411</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="33" spans="1:2" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>413</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="35" spans="1:2" hidden="1">
       <c r="A35" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>414</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:2" hidden="1">
       <c r="A36" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:2" hidden="1">
       <c r="A37" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B37" s="5"/>
+        <v>416</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:2" hidden="1">
       <c r="A38" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" hidden="1">
       <c r="A39" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>27</v>
@@ -5721,7 +5841,7 @@
     </row>
     <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>26</v>
@@ -5729,7 +5849,7 @@
     </row>
     <row r="45" spans="1:2" hidden="1">
       <c r="A45" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>28</v>
@@ -5737,77 +5857,71 @@
     </row>
     <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" hidden="1">
       <c r="A47" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" hidden="1">
       <c r="A48" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>427</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>428</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B50" s="5"/>
     </row>
+    <row r="51" spans="1:7">
+      <c r="E51" s="44"/>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="E59" s="47"/>
+    </row>
     <row r="60" spans="1:7">
-      <c r="G60" s="36">
-        <v>12.1</v>
-      </c>
+      <c r="G60" s="36"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="G61" s="37">
-        <v>-0.5504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="G62">
-        <v>-2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="G63">
-        <v>1.17</v>
-      </c>
+      <c r="G61" s="37"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="G64" s="38" t="s">
-        <v>433</v>
-      </c>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="36">
-        <v>-63526000</v>
-      </c>
+      <c r="G65" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B50" xr:uid="{6966B5A1-0932-4CBE-B79C-C977AB57A193}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="M. Bruta"/>
-        <filter val="M. EBIT:  "/>
-        <filter val="M. EBITDA:"/>
-        <filter val="M. Liquida:  "/>
+        <filter val="FreeFloatEvaluator"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5819,115 +5933,119 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5939,74 +6057,78 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29">
+      <c r="A3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
         <v>366</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>367</v>
       </c>
-      <c r="E2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F3" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" t="s">
         <v>373</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8">
-      <c r="A3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>375</v>
-      </c>
-      <c r="H3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6014,13 +6136,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE47A12A-8F27-4477-8015-94D6B83E6EAD}">
   <dimension ref="A2:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -6440,6 +6562,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6449,7 +6575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -6499,6 +6625,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6508,7 +6638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -6549,5 +6679,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
+***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e65bd4d2-aa7c-445f-9ef8-222ebb1d2b43}" enabled="1" method="Privileged" siteId="{9744600e-3e04-492e-baa1-25ec245c6f10}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/StatusInvestcomp_v1.xlsx
+++ b/StatusInvestcomp_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/silvio_puzzovio_telefonica_com/Documents/Pasta de Trabalho/drive C/python/analisefundamentalistafinal-main/analisefundamentalistafinal-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\analisefundamentalistafinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{8EB1F37C-D990-4D43-A0B1-2E6A23F8FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2046826E-D049-47BE-AC6D-DD62664ACD45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4927566-FFA3-40FD-AB54-C8723EB19AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,25 +30,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$B$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha5!$A$1:$B$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="434">
   <si>
     <t>FONTE</t>
   </si>
@@ -785,6 +772,34 @@
         <family val="3"/>
       </rPr>
       <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Div. liquida/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passivos/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -3064,58 +3079,17 @@
     <t>Classe</t>
   </si>
   <si>
-    <t>Div. liquida/PL</t>
-  </si>
-  <si>
-    <t>Div. liquida/EBITDA</t>
-  </si>
-  <si>
-    <t>Div. liquida/EBIT</t>
-  </si>
-  <si>
-    <r>
-      <t>Passivos/Ativos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Div. liquida/EBIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:  </t>
-    </r>
-  </si>
-  <si>
-    <t>P/Cap. Giro</t>
-  </si>
-  <si>
-    <t>P/Ativo Circ. Liq</t>
+    <t>-%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3231,14 +3205,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3353,12 +3321,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -3407,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3478,14 +3440,6 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3792,13 +3746,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3808,7 +3758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3832,10 +3782,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3845,7 +3791,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3874,10 +3820,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3887,7 +3829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -3950,10 +3892,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3965,12 +3903,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4035,10 +3973,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4046,24 +3980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" activeCellId="6" sqref="C50 C55 C56 C57 C58 C59 C62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>133</v>
@@ -4073,14 +4007,14 @@
         <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="18"/>
       <c r="M1" s="28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4088,7 +4022,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
@@ -4097,11 +4031,11 @@
         <v>134</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I2" s="18"/>
       <c r="M2" s="28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4109,15 +4043,15 @@
         <v>143</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="H3" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4125,7 +4059,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -4134,11 +4068,11 @@
         <v>134</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I4" s="5"/>
       <c r="M4" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4146,7 +4080,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>29</v>
@@ -4155,11 +4089,11 @@
         <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I5" s="5"/>
       <c r="M5" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4169,7 +4103,7 @@
       <c r="E6" s="5"/>
       <c r="H6" s="19"/>
       <c r="M6" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4182,7 +4116,7 @@
       </c>
       <c r="I7" s="17"/>
       <c r="M7" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4193,50 +4127,50 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I8" s="17"/>
       <c r="M8" s="28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J9" s="20"/>
       <c r="M9" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4245,10 +4179,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4257,10 +4191,10 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4271,21 +4205,21 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>146</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>138</v>
@@ -4294,40 +4228,40 @@
         <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>139</v>
@@ -4338,18 +4272,18 @@
       <c r="H16" s="21"/>
       <c r="J16" s="21"/>
       <c r="M16" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>149</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>140</v>
@@ -4362,7 +4296,7 @@
       </c>
       <c r="I17" s="17"/>
       <c r="M17" s="28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4371,11 +4305,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I18" s="17"/>
       <c r="M18" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4384,10 +4318,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="H19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4398,24 +4332,24 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="H20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>155</v>
@@ -4424,21 +4358,21 @@
         <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>156</v>
@@ -4447,18 +4381,18 @@
         <v>154</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>435</v>
+        <v>382</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4467,18 +4401,18 @@
       </c>
       <c r="I23" s="16"/>
       <c r="M23" s="28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B24" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -4491,34 +4425,34 @@
       </c>
       <c r="I24" s="16"/>
       <c r="M24" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="42" t="s">
-        <v>434</v>
+      <c r="B25" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>157</v>
@@ -4527,14 +4461,14 @@
         <v>154</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4543,14 +4477,14 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4561,22 +4495,22 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>164</v>
@@ -4585,22 +4519,22 @@
         <v>165</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -4609,36 +4543,36 @@
         <v>165</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I30" s="5"/>
       <c r="M30" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I31" s="5"/>
       <c r="M31" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="5" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
@@ -4648,15 +4582,15 @@
       </c>
       <c r="H32" s="15"/>
       <c r="M32" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>6</v>
@@ -4668,15 +4602,15 @@
         <v>75</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>7</v>
@@ -4685,32 +4619,32 @@
         <v>165</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M35" s="28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
@@ -4719,18 +4653,18 @@
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="5" t="s">
         <v>167</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -4739,18 +4673,18 @@
         <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>177</v>
@@ -4759,18 +4693,18 @@
         <v>165</v>
       </c>
       <c r="H38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -4779,18 +4713,18 @@
         <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>176</v>
@@ -4799,18 +4733,18 @@
         <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>174</v>
@@ -4819,18 +4753,18 @@
         <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>175</v>
@@ -4839,64 +4773,64 @@
         <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="H43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="H44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C45" s="29"/>
       <c r="H45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H46" s="19"/>
       <c r="M46" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -4905,15 +4839,15 @@
       </c>
       <c r="I47" s="16"/>
       <c r="M47" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D48" s="5"/>
       <c r="H48" s="16" t="s">
@@ -4921,15 +4855,15 @@
       </c>
       <c r="I48" s="16"/>
       <c r="M48" s="28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>38</v>
@@ -4938,114 +4872,114 @@
         <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="39" t="s">
-        <v>197</v>
+      <c r="B50" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M50" s="28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="30" t="s">
-        <v>187</v>
+      <c r="B51" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>173</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="4" t="s">
         <v>158</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="48" t="s">
-        <v>188</v>
+      <c r="B54" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4" t="s">
@@ -5053,20 +4987,20 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="30" t="s">
-        <v>189</v>
+      <c r="B55" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4" t="s">
@@ -5074,20 +5008,20 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="30" t="s">
-        <v>190</v>
+      <c r="B56" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
@@ -5095,20 +5029,20 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="30" t="s">
-        <v>191</v>
+      <c r="B57" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
@@ -5116,20 +5050,20 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="30" t="s">
-        <v>192</v>
+      <c r="B58" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="4" t="s">
@@ -5137,20 +5071,20 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="30" t="s">
-        <v>193</v>
+      <c r="B59" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
@@ -5159,26 +5093,26 @@
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>99</v>
@@ -5186,11 +5120,11 @@
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="49" t="s">
-        <v>337</v>
+      <c r="B62" s="31" t="s">
+        <v>339</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>134</v>
@@ -5199,13 +5133,13 @@
     </row>
     <row r="63" spans="2:13">
       <c r="H63" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="2:13">
       <c r="H64" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="24" t="s">
@@ -5214,7 +5148,7 @@
     </row>
     <row r="65" spans="5:10">
       <c r="H65" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="24" t="s">
@@ -5223,19 +5157,19 @@
     </row>
     <row r="66" spans="5:10">
       <c r="H66" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="5:10">
       <c r="H67" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="5:10">
       <c r="H68" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="24" t="s">
@@ -5244,7 +5178,7 @@
     </row>
     <row r="69" spans="5:10">
       <c r="H69" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="25" t="s">
@@ -5253,7 +5187,7 @@
     </row>
     <row r="70" spans="5:10">
       <c r="H70" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="25" t="s">
@@ -5262,7 +5196,7 @@
     </row>
     <row r="71" spans="5:10">
       <c r="H71" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="25" t="s">
@@ -5281,19 +5215,19 @@
     </row>
     <row r="74" spans="5:10">
       <c r="H74" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
     </row>
     <row r="75" spans="5:10">
       <c r="H75" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="H76" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="26" t="s">
@@ -5303,7 +5237,7 @@
     <row r="77" spans="5:10">
       <c r="E77" s="5"/>
       <c r="H77" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -5311,7 +5245,7 @@
     <row r="78" spans="5:10">
       <c r="E78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="26" t="s">
@@ -5321,7 +5255,7 @@
     <row r="79" spans="5:10">
       <c r="E79" s="9"/>
       <c r="H79" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="26" t="s">
@@ -5331,7 +5265,7 @@
     <row r="80" spans="5:10">
       <c r="E80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="26" t="s">
@@ -5351,69 +5285,69 @@
     </row>
     <row r="83" spans="3:10">
       <c r="H83" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="3:10">
       <c r="H84" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="3:10">
       <c r="H85" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="3:10">
       <c r="H86" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="3:10">
       <c r="C87" s="28"/>
       <c r="H87" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="28"/>
       <c r="H88" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="3:10">
       <c r="H89" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="3:10">
       <c r="H90" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="3:10">
@@ -5427,7 +5361,7 @@
     </row>
     <row r="93" spans="3:10">
       <c r="H93" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I93" s="16"/>
     </row>
@@ -5438,14 +5372,14 @@
     </row>
     <row r="95" spans="3:10">
       <c r="H95" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="3:10">
       <c r="H96" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -5453,7 +5387,7 @@
     <row r="97" spans="3:10">
       <c r="C97" s="28"/>
       <c r="H97" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -5467,24 +5401,24 @@
     <row r="99" spans="3:10">
       <c r="C99" s="28"/>
       <c r="H99" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="28"/>
       <c r="H100" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="3:10">
       <c r="H101" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="28"/>
       <c r="H102" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="3:10">
@@ -5494,10 +5428,6 @@
   <autoFilter ref="B1:E5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5507,173 +5437,147 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1">
+        <v>383</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" hidden="1">
       <c r="A3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1">
+        <v>384</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:2" hidden="1">
       <c r="A5" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:2" hidden="1">
       <c r="A7" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1">
+        <v>389</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" hidden="1">
       <c r="A9" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
+        <v>390</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" hidden="1">
       <c r="A10" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1">
+        <v>391</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1">
+        <v>392</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1">
+        <v>393</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" hidden="1">
       <c r="A13" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1">
+        <v>394</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1">
+        <v>395</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" hidden="1">
       <c r="A15" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:2" hidden="1">
       <c r="A16" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" hidden="1">
       <c r="A17" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" hidden="1">
       <c r="A19" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>337</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" hidden="1">
       <c r="A22" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -5681,43 +5585,37 @@
     </row>
     <row r="23" spans="1:2" hidden="1">
       <c r="A23" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>403</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" hidden="1">
       <c r="A25" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" hidden="1">
       <c r="A27" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>22</v>
@@ -5725,7 +5623,7 @@
     </row>
     <row r="29" spans="1:2" hidden="1">
       <c r="A29" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>147</v>
@@ -5733,7 +5631,7 @@
     </row>
     <row r="30" spans="1:2" hidden="1">
       <c r="A30" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>148</v>
@@ -5741,7 +5639,7 @@
     </row>
     <row r="31" spans="1:2" hidden="1">
       <c r="A31" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>149</v>
@@ -5749,91 +5647,73 @@
     </row>
     <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>437</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>436</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" hidden="1">
       <c r="A35" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" hidden="1">
       <c r="A36" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" hidden="1">
       <c r="A37" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" hidden="1">
       <c r="A38" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" hidden="1">
       <c r="A39" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>27</v>
@@ -5841,7 +5721,7 @@
     </row>
     <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>26</v>
@@ -5849,7 +5729,7 @@
     </row>
     <row r="45" spans="1:2" hidden="1">
       <c r="A45" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>28</v>
@@ -5857,71 +5737,74 @@
     </row>
     <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" hidden="1">
       <c r="A47" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" hidden="1">
       <c r="A48" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="E51" s="44"/>
-      <c r="F51" s="46"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="E59" s="47"/>
-    </row>
     <row r="60" spans="1:7">
-      <c r="G60" s="36"/>
+      <c r="G60" s="36">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="G61" s="37"/>
+      <c r="G61" s="37">
+        <v>-0.5504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="G62">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="G63">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="G64" s="38"/>
+      <c r="G64" s="38" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="36"/>
+      <c r="G65" s="36">
+        <v>-63526000</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B50" xr:uid="{6966B5A1-0932-4CBE-B79C-C977AB57A193}">
     <filterColumn colId="0">
       <filters>
-        <filter val="FreeFloatEvaluator"/>
+        <filter val="DivLiquidaPatrimonioLiquidoEvaluator"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5933,119 +5816,115 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="33" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="33" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="33" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="33" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="33" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="33" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="33" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6057,78 +5936,74 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="C2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I3" t="s">
         <v>377</v>
-      </c>
-      <c r="B3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="G3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6136,13 +6011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE47A12A-8F27-4477-8015-94D6B83E6EAD}">
   <dimension ref="A2:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -6562,10 +6437,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6575,7 +6446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -6625,10 +6496,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -6638,7 +6505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -6679,15 +6546,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Arial"&amp;7&amp;K000000 ***Este documento está clasificado como PUBLICO por TELEFÓNICA.
-***This document is classified as PUBLIC by TELEFÓNICA.</oddFooter>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{e65bd4d2-aa7c-445f-9ef8-222ebb1d2b43}" enabled="1" method="Privileged" siteId="{9744600e-3e04-492e-baa1-25ec245c6f10}" removed="0"/>
-</clbl:labelList>
 </file>